--- a/orders/project-supplies/ProjectSuppliesRequestForm_FloraCommunications_Order3.xlsx
+++ b/orders/project-supplies/ProjectSuppliesRequestForm_FloraCommunications_Order3.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8a7dff0b441a3a2/Documents/GitHub/flora-hardware/resources/orders/prep-room/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cam/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="8_{75229EE9-F004-4163-9BE1-71412B46D64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A346A375-9D72-4CBE-BE9E-6987D07DA944}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED7D741-F0C5-8642-B02F-4684CBE9C15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mouser" sheetId="1" r:id="rId1"/>
     <sheet name="Digikey" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Mouser!$A$2:$M$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Mouser!$A$2:$N$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="214">
   <si>
     <t>Student Email:</t>
   </si>
@@ -675,6 +675,12 @@
   </si>
   <si>
     <t>Thick Film Resistors - SMD 0805 40.2Kohms -R21</t>
+  </si>
+  <si>
+    <t>QTY Rec.</t>
+  </si>
+  <si>
+    <t>Qty Rec,</t>
   </si>
 </sst>
 </file>
@@ -1629,26 +1635,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:O52"/>
+  <dimension ref="A2:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A14" zoomScale="56" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="12" style="3" customWidth="1"/>
-    <col min="3" max="6" width="40" style="3" customWidth="1"/>
-    <col min="7" max="7" width="202.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="11" customWidth="1"/>
-    <col min="9" max="10" width="13.5703125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="31.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="13" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="13" customWidth="1"/>
+    <col min="2" max="3" width="12" style="3" customWidth="1"/>
+    <col min="4" max="7" width="40" style="3" customWidth="1"/>
+    <col min="8" max="8" width="202.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="11" customWidth="1"/>
+    <col min="10" max="11" width="13.5" style="7" customWidth="1"/>
+    <col min="12" max="12" width="31.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="72" t="s">
         <v>17</v>
@@ -1664,76 +1670,80 @@
       <c r="K2" s="72"/>
       <c r="L2" s="72"/>
       <c r="M2" s="72"/>
-    </row>
-    <row r="3" spans="1:15" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N2" s="72"/>
+    </row>
+    <row r="3" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="73" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="73"/>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="73"/>
+      <c r="E3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="76"/>
+      <c r="G3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="H3" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="I3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="68" t="s">
+      <c r="J3" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="69"/>
       <c r="K3" s="69"/>
       <c r="L3" s="69"/>
-      <c r="M3" s="70"/>
-    </row>
-    <row r="4" spans="1:15" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M3" s="69"/>
+      <c r="N3" s="70"/>
+    </row>
+    <row r="4" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="74" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="74"/>
-      <c r="D4" s="40">
+      <c r="D4" s="74"/>
+      <c r="E4" s="40">
         <f ca="1">TODAY()</f>
-        <v>45579</v>
-      </c>
-      <c r="E4" s="5"/>
+        <v>45583</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="71" t="s">
+      <c r="J4" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="69"/>
       <c r="K4" s="69"/>
       <c r="L4" s="69"/>
-      <c r="M4" s="70"/>
-    </row>
-    <row r="5" spans="1:15" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="M4" s="69"/>
+      <c r="N4" s="70"/>
+    </row>
+    <row r="5" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="43" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="24"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="25"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N5" s="25"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1741,16 +1751,17 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="6"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="65" t="s">
+      <c r="K6" s="6"/>
+      <c r="L6" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="66"/>
-      <c r="M6" s="67"/>
-    </row>
-    <row r="7" spans="1:15" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="66"/>
+      <c r="N6" s="67"/>
+    </row>
+    <row r="7" spans="1:16" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
@@ -1758,1444 +1769,1564 @@
         <v>2</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="F7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="G7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="H7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="I7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="J7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="K7" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="L7" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="M7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N7" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>1</v>
       </c>
       <c r="B8" s="61">
         <v>35</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="61">
+        <v>35</v>
+      </c>
+      <c r="D8" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="E8" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="F8" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G8" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="I8" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="57">
+      <c r="J8" s="57">
         <v>0.113</v>
       </c>
-      <c r="J8" s="55">
-        <f>I8*B8</f>
+      <c r="K8" s="55">
+        <f>J8*B8</f>
         <v>3.9550000000000001</v>
       </c>
-      <c r="K8" s="51"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="35"/>
-    </row>
-    <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L8" s="51"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="35"/>
+    </row>
+    <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>2</v>
       </c>
       <c r="B9" s="61">
         <v>10</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="61">
+        <v>10</v>
+      </c>
+      <c r="D9" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="E9" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="F9" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G9" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="I9" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="57">
+      <c r="J9" s="57">
         <v>0.19600000000000001</v>
       </c>
-      <c r="J9" s="55">
-        <f t="shared" ref="J9:J28" si="0">I9*B9</f>
+      <c r="K9" s="55">
+        <f t="shared" ref="K9:K28" si="0">J9*B9</f>
         <v>1.96</v>
       </c>
-      <c r="K9" s="52"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="36"/>
-    </row>
-    <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L9" s="52"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="36"/>
+    </row>
+    <row r="10" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>3</v>
       </c>
       <c r="B10" s="61">
         <v>5</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="61">
+        <v>5</v>
+      </c>
+      <c r="D10" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="E10" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="F10" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G10" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="I10" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="57">
+      <c r="J10" s="57">
         <v>0.30499999999999999</v>
       </c>
-      <c r="J10" s="55">
+      <c r="K10" s="55">
         <f t="shared" si="0"/>
         <v>1.5249999999999999</v>
       </c>
-      <c r="K10" s="53"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="37"/>
-    </row>
-    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L10" s="53"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="37"/>
+    </row>
+    <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>4</v>
       </c>
       <c r="B11" s="61">
         <v>10</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="61">
+        <v>10</v>
+      </c>
+      <c r="D11" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="E11" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="F11" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G11" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="57" t="s">
+      <c r="I11" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="57">
+      <c r="J11" s="57">
         <v>0.157</v>
       </c>
-      <c r="J11" s="55">
+      <c r="K11" s="55">
         <f t="shared" si="0"/>
         <v>1.57</v>
       </c>
-      <c r="K11" s="52"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="36"/>
-    </row>
-    <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L11" s="52"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="36"/>
+    </row>
+    <row r="12" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>5</v>
       </c>
       <c r="B12" s="61">
         <v>10</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="61">
+        <v>10</v>
+      </c>
+      <c r="D12" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="E12" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="F12" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G12" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="I12" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="57">
+      <c r="J12" s="57">
         <v>0.81299999999999994</v>
       </c>
-      <c r="J12" s="55">
+      <c r="K12" s="55">
         <f t="shared" si="0"/>
         <v>8.129999999999999</v>
       </c>
-      <c r="K12" s="53"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="37"/>
-    </row>
-    <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L12" s="53"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="37"/>
+    </row>
+    <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>6</v>
       </c>
       <c r="B13" s="61">
         <v>5</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="61">
+        <v>5</v>
+      </c>
+      <c r="D13" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="E13" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="F13" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G13" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="I13" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="57">
+      <c r="J13" s="57">
         <v>0.89900000000000002</v>
       </c>
-      <c r="J13" s="55">
+      <c r="K13" s="55">
         <f t="shared" si="0"/>
         <v>4.4950000000000001</v>
       </c>
-      <c r="K13" s="52"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="36"/>
-    </row>
-    <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L13" s="52"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="36"/>
+    </row>
+    <row r="14" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>7</v>
       </c>
       <c r="B14" s="61">
         <v>5</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="61">
+        <v>5</v>
+      </c>
+      <c r="D14" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="E14" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="F14" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G14" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="57" t="s">
+      <c r="I14" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="57">
+      <c r="J14" s="57">
         <v>0.14499999999999999</v>
       </c>
-      <c r="J14" s="55">
+      <c r="K14" s="55">
         <f t="shared" si="0"/>
         <v>0.72499999999999998</v>
       </c>
-      <c r="K14" s="53"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="37"/>
-    </row>
-    <row r="15" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L14" s="53"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="37"/>
+    </row>
+    <row r="15" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>8</v>
       </c>
       <c r="B15" s="61">
         <v>15</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="61">
+        <v>15</v>
+      </c>
+      <c r="D15" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="E15" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="F15" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G15" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="57" t="s">
+      <c r="I15" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="57">
+      <c r="J15" s="57">
         <v>2.04</v>
       </c>
-      <c r="J15" s="55">
+      <c r="K15" s="55">
         <f t="shared" si="0"/>
         <v>30.6</v>
       </c>
-      <c r="K15" s="52"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="36"/>
-    </row>
-    <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L15" s="52"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="36"/>
+    </row>
+    <row r="16" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>9</v>
       </c>
       <c r="B16" s="61">
         <v>5</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="61">
+        <v>5</v>
+      </c>
+      <c r="D16" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="E16" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="F16" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G16" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="57" t="s">
+      <c r="I16" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="57">
+      <c r="J16" s="57">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J16" s="55">
+      <c r="K16" s="55">
         <f t="shared" si="0"/>
         <v>1.45</v>
       </c>
-      <c r="K16" s="53"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="37"/>
-      <c r="O16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L16" s="53"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="37"/>
+      <c r="P16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>10</v>
       </c>
       <c r="B17" s="61">
         <v>5</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="61">
+        <v>5</v>
+      </c>
+      <c r="D17" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="E17" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="F17" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G17" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="I17" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="57">
+      <c r="J17" s="57">
         <v>0.14499999999999999</v>
       </c>
-      <c r="J17" s="55">
+      <c r="K17" s="55">
         <f t="shared" si="0"/>
         <v>0.72499999999999998</v>
       </c>
-      <c r="K17" s="52"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="36"/>
-    </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L17" s="52"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="36"/>
+    </row>
+    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>11</v>
       </c>
       <c r="B18" s="61">
         <v>5</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="61">
+        <v>5</v>
+      </c>
+      <c r="D18" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="E18" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="F18" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G18" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="57" t="s">
+      <c r="I18" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="57">
+      <c r="J18" s="57">
         <v>2.58</v>
       </c>
-      <c r="J18" s="55">
+      <c r="K18" s="55">
         <f t="shared" si="0"/>
         <v>12.9</v>
       </c>
-      <c r="K18" s="53"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="37"/>
-    </row>
-    <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L18" s="53"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="37"/>
+    </row>
+    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>12</v>
       </c>
       <c r="B19" s="61">
         <v>5</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="61">
+        <v>5</v>
+      </c>
+      <c r="D19" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="E19" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="F19" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G19" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="57" t="s">
+      <c r="I19" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="57">
+      <c r="J19" s="57">
         <v>1.07</v>
       </c>
-      <c r="J19" s="55">
+      <c r="K19" s="55">
         <f t="shared" si="0"/>
         <v>5.3500000000000005</v>
       </c>
-      <c r="K19" s="52"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="36"/>
-    </row>
-    <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L19" s="52"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="36"/>
+    </row>
+    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>13</v>
       </c>
       <c r="B20" s="61">
         <v>5</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="61">
+        <v>5</v>
+      </c>
+      <c r="D20" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="E20" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="F20" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G20" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="H20" s="57" t="s">
+      <c r="I20" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="57">
+      <c r="J20" s="57">
         <v>0.52200000000000002</v>
       </c>
-      <c r="J20" s="55">
+      <c r="K20" s="55">
         <f t="shared" si="0"/>
         <v>2.6100000000000003</v>
       </c>
-      <c r="K20" s="53"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="37"/>
-    </row>
-    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L20" s="53"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="37"/>
+    </row>
+    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>14</v>
       </c>
       <c r="B21" s="61">
         <v>10</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="61">
+        <v>10</v>
+      </c>
+      <c r="D21" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="E21" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="F21" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G21" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="H21" s="57" t="s">
+      <c r="I21" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="57">
+      <c r="J21" s="57">
         <v>0.247</v>
       </c>
-      <c r="J21" s="55">
+      <c r="K21" s="55">
         <f t="shared" si="0"/>
         <v>2.4699999999999998</v>
       </c>
-      <c r="K21" s="52"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="36"/>
-    </row>
-    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L21" s="52"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="36"/>
+    </row>
+    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>15</v>
       </c>
       <c r="B22" s="61">
         <v>5</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="61">
+        <v>5</v>
+      </c>
+      <c r="D22" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="E22" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="57" t="s">
+      <c r="F22" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G22" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="H22" s="57" t="s">
+      <c r="I22" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="I22" s="57">
+      <c r="J22" s="57">
         <v>0.91400000000000003</v>
       </c>
-      <c r="J22" s="55">
+      <c r="K22" s="55">
         <f t="shared" si="0"/>
         <v>4.57</v>
       </c>
-      <c r="K22" s="53"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="37"/>
-    </row>
-    <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L22" s="53"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="37"/>
+    </row>
+    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>16</v>
       </c>
       <c r="B23" s="61">
         <v>15</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="61">
+        <v>15</v>
+      </c>
+      <c r="D23" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="E23" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="57" t="s">
+      <c r="F23" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G23" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="H23" s="57" t="s">
+      <c r="I23" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="I23" s="57">
+      <c r="J23" s="57">
         <v>0.193</v>
       </c>
-      <c r="J23" s="55">
+      <c r="K23" s="55">
         <f t="shared" si="0"/>
         <v>2.895</v>
       </c>
-      <c r="K23" s="52"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="36"/>
-    </row>
-    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L23" s="52"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="36"/>
+    </row>
+    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>17</v>
       </c>
       <c r="B24" s="61">
         <v>10</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="61">
+        <v>10</v>
+      </c>
+      <c r="D24" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="E24" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="F24" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G24" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="H24" s="57" t="s">
+      <c r="I24" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="I24" s="57">
+      <c r="J24" s="57">
         <v>1.3</v>
       </c>
-      <c r="J24" s="55">
+      <c r="K24" s="55">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="K24" s="52"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="36"/>
-    </row>
-    <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L24" s="52"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="36"/>
+    </row>
+    <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>18</v>
       </c>
       <c r="B25" s="61">
         <v>5</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="61">
+        <v>5</v>
+      </c>
+      <c r="D25" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="E25" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="F25" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G25" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="H25" s="57" t="s">
+      <c r="I25" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="I25" s="57">
+      <c r="J25" s="57">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J25" s="55">
+      <c r="K25" s="55">
         <f t="shared" si="0"/>
         <v>5.75</v>
       </c>
-      <c r="K25" s="53"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="37"/>
-    </row>
-    <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L25" s="53"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="37"/>
+    </row>
+    <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>19</v>
       </c>
       <c r="B26" s="61">
         <v>5</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="61">
+        <v>5</v>
+      </c>
+      <c r="D26" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="E26" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="F26" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G26" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="H26" s="57" t="s">
+      <c r="I26" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="I26" s="57">
+      <c r="J26" s="57">
         <v>1.78</v>
       </c>
-      <c r="J26" s="55">
+      <c r="K26" s="55">
         <f t="shared" si="0"/>
         <v>8.9</v>
       </c>
-      <c r="K26" s="52"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="36"/>
-    </row>
-    <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L26" s="52"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="36"/>
+    </row>
+    <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>20</v>
       </c>
       <c r="B27" s="61">
         <v>5</v>
       </c>
-      <c r="C27" s="58">
+      <c r="C27" s="61">
+        <v>5</v>
+      </c>
+      <c r="D27" s="58">
         <v>74479299222</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="E27" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="57" t="s">
+      <c r="F27" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G27" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="H27" s="57" t="s">
+      <c r="I27" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="57">
+      <c r="J27" s="57">
         <v>1.39</v>
       </c>
-      <c r="J27" s="55">
+      <c r="K27" s="55">
         <f t="shared" si="0"/>
         <v>6.9499999999999993</v>
       </c>
-      <c r="K27" s="53"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="37"/>
-    </row>
-    <row r="28" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L27" s="53"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="37"/>
+    </row>
+    <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <v>21</v>
       </c>
       <c r="B28" s="61">
         <v>5</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="61">
+        <v>5</v>
+      </c>
+      <c r="D28" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="E28" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="57" t="s">
+      <c r="F28" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G28" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="H28" s="57" t="s">
+      <c r="I28" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="I28" s="57">
+      <c r="J28" s="57">
         <v>1.83</v>
       </c>
-      <c r="J28" s="55">
+      <c r="K28" s="55">
         <f t="shared" si="0"/>
         <v>9.15</v>
       </c>
-      <c r="K28" s="52"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="36"/>
-    </row>
-    <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L28" s="52"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="36"/>
+    </row>
+    <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>22</v>
       </c>
       <c r="B29" s="61">
         <v>5</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="61">
+        <v>5</v>
+      </c>
+      <c r="D29" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="E29" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="57" t="s">
+      <c r="F29" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G29" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="H29" s="57" t="s">
+      <c r="I29" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="57">
+      <c r="J29" s="57">
         <v>0.16</v>
       </c>
-      <c r="J29" s="55">
-        <f t="shared" ref="J29:J46" si="1">I29*B29</f>
+      <c r="K29" s="55">
+        <f t="shared" ref="K29:K46" si="1">J29*B29</f>
         <v>0.8</v>
       </c>
-      <c r="K29" s="52"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="36"/>
-    </row>
-    <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L29" s="52"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="36"/>
+    </row>
+    <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
         <v>23</v>
       </c>
       <c r="B30" s="61">
         <v>5</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="61">
+        <v>5</v>
+      </c>
+      <c r="D30" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="E30" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="57" t="s">
+      <c r="F30" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G30" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="H30" s="57" t="s">
+      <c r="I30" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="57">
+      <c r="J30" s="57">
         <v>0.16</v>
       </c>
-      <c r="J30" s="55">
+      <c r="K30" s="55">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="K30" s="53"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="37"/>
-    </row>
-    <row r="31" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L30" s="53"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="37"/>
+    </row>
+    <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>24</v>
       </c>
       <c r="B31" s="61">
         <v>15</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="61">
+        <v>15</v>
+      </c>
+      <c r="D31" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="E31" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="57" t="s">
+      <c r="F31" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="F31" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G31" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="H31" s="57" t="s">
+      <c r="I31" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="I31" s="57">
+      <c r="J31" s="57">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="J31" s="55">
+      <c r="K31" s="55">
         <f t="shared" si="1"/>
         <v>0.48</v>
       </c>
-      <c r="K31" s="52"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="36"/>
-    </row>
-    <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L31" s="52"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="36"/>
+    </row>
+    <row r="32" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
         <v>25</v>
       </c>
       <c r="B32" s="61">
         <v>5</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="61">
+        <v>5</v>
+      </c>
+      <c r="D32" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="E32" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="F32" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="F32" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G32" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="H32" s="57" t="s">
+      <c r="I32" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="I32" s="57">
+      <c r="J32" s="57">
         <v>0.16</v>
       </c>
-      <c r="J32" s="55">
+      <c r="K32" s="55">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="K32" s="53"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="37"/>
-    </row>
-    <row r="33" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L32" s="53"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="37"/>
+    </row>
+    <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>26</v>
       </c>
       <c r="B33" s="61">
         <v>10</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="61">
+        <v>10</v>
+      </c>
+      <c r="D33" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="E33" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="57" t="s">
+      <c r="F33" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="F33" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G33" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="H33" s="57" t="s">
+      <c r="I33" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="I33" s="57">
+      <c r="J33" s="57">
         <v>1.9E-2</v>
       </c>
-      <c r="J33" s="55">
+      <c r="K33" s="55">
         <f t="shared" si="1"/>
         <v>0.19</v>
       </c>
-      <c r="K33" s="52"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="36"/>
-    </row>
-    <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L33" s="52"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="36"/>
+    </row>
+    <row r="34" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
         <v>27</v>
       </c>
       <c r="B34" s="61">
         <v>5</v>
       </c>
-      <c r="C34" s="57" t="s">
+      <c r="C34" s="61">
+        <v>5</v>
+      </c>
+      <c r="D34" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="E34" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="57" t="s">
+      <c r="F34" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="F34" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G34" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="H34" s="57" t="s">
+      <c r="I34" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="I34" s="57">
+      <c r="J34" s="57">
         <v>0.14499999999999999</v>
       </c>
-      <c r="J34" s="55">
+      <c r="K34" s="55">
         <f t="shared" si="1"/>
         <v>0.72499999999999998</v>
       </c>
-      <c r="K34" s="53"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="37"/>
-    </row>
-    <row r="35" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L34" s="53"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="37"/>
+    </row>
+    <row r="35" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>28</v>
       </c>
       <c r="B35" s="61">
         <v>5</v>
       </c>
-      <c r="C35" s="57" t="s">
+      <c r="C35" s="61">
+        <v>5</v>
+      </c>
+      <c r="D35" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="E35" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="57" t="s">
+      <c r="F35" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="F35" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G35" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="H35" s="57" t="s">
+      <c r="I35" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="I35" s="57">
+      <c r="J35" s="57">
         <v>0.14499999999999999</v>
       </c>
-      <c r="J35" s="55">
+      <c r="K35" s="55">
         <f t="shared" si="1"/>
         <v>0.72499999999999998</v>
       </c>
-      <c r="K35" s="52"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="36"/>
-    </row>
-    <row r="36" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="L35" s="52"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="36"/>
+    </row>
+    <row r="36" spans="1:14" ht="26" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>29</v>
       </c>
       <c r="B36" s="61">
         <v>5</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="61">
+        <v>5</v>
+      </c>
+      <c r="D36" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="D36" s="57" t="s">
+      <c r="E36" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="E36" s="57" t="s">
+      <c r="F36" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="F36" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G36" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="H36" s="60" t="s">
+      <c r="I36" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="I36" s="57">
+      <c r="J36" s="57">
         <v>0.23</v>
       </c>
-      <c r="J36" s="55">
+      <c r="K36" s="55">
         <f t="shared" si="1"/>
         <v>1.1500000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <v>30</v>
       </c>
       <c r="B37" s="61">
         <v>5</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="61">
+        <v>5</v>
+      </c>
+      <c r="D37" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="E37" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="57" t="s">
+      <c r="F37" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="F37" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G37" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="H37" s="57" t="s">
+      <c r="I37" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="57">
+      <c r="J37" s="57">
         <v>0.14499999999999999</v>
       </c>
-      <c r="J37" s="55">
+      <c r="K37" s="55">
         <f t="shared" si="1"/>
         <v>0.72499999999999998</v>
       </c>
-      <c r="K37" s="53"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="37"/>
-    </row>
-    <row r="38" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L37" s="53"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="37"/>
+    </row>
+    <row r="38" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
         <v>31</v>
       </c>
       <c r="B38" s="61">
         <v>15</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="61">
+        <v>15</v>
+      </c>
+      <c r="D38" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="E38" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="E38" s="57" t="s">
+      <c r="F38" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="F38" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G38" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="H38" s="57" t="s">
+      <c r="I38" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="I38" s="57">
+      <c r="J38" s="57">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="J38" s="55">
+      <c r="K38" s="55">
         <f t="shared" si="1"/>
         <v>0.48</v>
       </c>
-      <c r="K38" s="52"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="36"/>
-    </row>
-    <row r="39" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L38" s="52"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="36"/>
+    </row>
+    <row r="39" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
         <v>32</v>
       </c>
       <c r="B39" s="61">
         <v>20</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="61">
+        <v>20</v>
+      </c>
+      <c r="D39" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="D39" s="57" t="s">
+      <c r="E39" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="E39" s="57" t="s">
+      <c r="F39" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="F39" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G39" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="H39" s="57" t="s">
+      <c r="I39" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="I39" s="57">
+      <c r="J39" s="57">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="J39" s="55">
+      <c r="K39" s="55">
         <f t="shared" si="1"/>
         <v>0.52</v>
       </c>
-      <c r="K39" s="53"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="37"/>
-    </row>
-    <row r="40" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L39" s="53"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="37"/>
+    </row>
+    <row r="40" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19">
         <v>33</v>
       </c>
       <c r="B40" s="61">
         <v>5</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="61">
+        <v>5</v>
+      </c>
+      <c r="D40" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="E40" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="E40" s="57" t="s">
+      <c r="F40" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="F40" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G40" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="H40" s="57" t="s">
+      <c r="I40" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="I40" s="57">
+      <c r="J40" s="57">
         <v>0.14499999999999999</v>
       </c>
-      <c r="J40" s="55">
+      <c r="K40" s="55">
         <f t="shared" si="1"/>
         <v>0.72499999999999998</v>
       </c>
-      <c r="K40" s="52"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="36"/>
-    </row>
-    <row r="41" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L40" s="52"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="36"/>
+    </row>
+    <row r="41" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <v>34</v>
       </c>
       <c r="B41" s="61">
         <v>5</v>
       </c>
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="61">
+        <v>5</v>
+      </c>
+      <c r="D41" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="E41" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="E41" s="57" t="s">
+      <c r="F41" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="F41" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G41" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="H41" s="57" t="s">
+      <c r="I41" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="I41" s="57">
+      <c r="J41" s="57">
         <v>0.16</v>
       </c>
-      <c r="J41" s="55">
+      <c r="K41" s="55">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="K41" s="53"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="37"/>
-    </row>
-    <row r="42" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L41" s="53"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="37"/>
+    </row>
+    <row r="42" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19">
         <v>35</v>
       </c>
       <c r="B42" s="61">
         <v>5</v>
       </c>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="61">
+        <v>5</v>
+      </c>
+      <c r="D42" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="E42" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="E42" s="57" t="s">
+      <c r="F42" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="F42" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G42" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="H42" s="57" t="s">
+      <c r="I42" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="57">
+      <c r="J42" s="57">
         <v>0.14499999999999999</v>
       </c>
-      <c r="J42" s="55">
+      <c r="K42" s="55">
         <f t="shared" si="1"/>
         <v>0.72499999999999998</v>
       </c>
-      <c r="K42" s="52"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="36"/>
-    </row>
-    <row r="43" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L42" s="52"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="36"/>
+    </row>
+    <row r="43" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>36</v>
       </c>
       <c r="B43" s="61">
         <v>5</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="C43" s="61">
+        <v>5</v>
+      </c>
+      <c r="D43" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="D43" s="57" t="s">
+      <c r="E43" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="E43" s="57" t="s">
+      <c r="F43" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="F43" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G43" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="H43" s="57" t="s">
+      <c r="I43" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="I43" s="57">
+      <c r="J43" s="57">
         <v>0.16</v>
       </c>
-      <c r="J43" s="55">
+      <c r="K43" s="55">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="K43" s="53"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="37"/>
-    </row>
-    <row r="44" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L43" s="53"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="37"/>
+    </row>
+    <row r="44" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19">
         <v>37</v>
       </c>
       <c r="B44" s="61">
         <v>15</v>
       </c>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="61">
+        <v>15</v>
+      </c>
+      <c r="D44" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="57" t="s">
+      <c r="E44" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="E44" s="57" t="s">
+      <c r="F44" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="F44" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G44" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="H44" s="57" t="s">
+      <c r="I44" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="I44" s="57">
+      <c r="J44" s="57">
         <v>0.186</v>
       </c>
-      <c r="J44" s="55">
+      <c r="K44" s="55">
         <f t="shared" si="1"/>
         <v>2.79</v>
       </c>
-      <c r="K44" s="52"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="36"/>
-    </row>
-    <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L44" s="52"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="36"/>
+    </row>
+    <row r="45" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <v>38</v>
       </c>
       <c r="B45" s="61">
         <v>5</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="61">
+        <v>5</v>
+      </c>
+      <c r="D45" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="D45" s="57" t="s">
+      <c r="E45" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="E45" s="57" t="s">
+      <c r="F45" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="F45" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G45" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="H45" s="57" t="s">
+      <c r="I45" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="I45" s="57">
+      <c r="J45" s="57">
         <v>4.5</v>
       </c>
-      <c r="J45" s="55">
+      <c r="K45" s="55">
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="K45" s="52"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="36"/>
-    </row>
-    <row r="46" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L45" s="52"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="36"/>
+    </row>
+    <row r="46" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="19">
         <v>39</v>
       </c>
       <c r="B46" s="61">
         <v>5</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="61">
+        <v>5</v>
+      </c>
+      <c r="D46" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="57" t="s">
+      <c r="E46" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="E46" s="57" t="s">
+      <c r="F46" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="F46" s="57" t="s">
-        <v>29</v>
-      </c>
       <c r="G46" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="H46" s="57" t="s">
+      <c r="I46" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="I46" s="57">
+      <c r="J46" s="57">
         <v>1.65</v>
       </c>
-      <c r="J46" s="55">
+      <c r="K46" s="55">
         <f t="shared" si="1"/>
         <v>8.25</v>
       </c>
-      <c r="K46" s="52"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="36"/>
-    </row>
-    <row r="47" spans="1:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L46" s="52"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="36"/>
+    </row>
+    <row r="47" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
       <c r="B47" s="44"/>
       <c r="C47" s="44"/>
@@ -3203,42 +3334,43 @@
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
       <c r="G47" s="44"/>
-      <c r="H47" s="47" t="s">
+      <c r="H47" s="44"/>
+      <c r="I47" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46">
-        <f>SUM(J8:J46)</f>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46">
+        <f>SUM(K8:K46)</f>
         <v>173.66500000000002</v>
       </c>
-      <c r="K47" s="45"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="28"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="3">
+      <c r="L47" s="45"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="28"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D52" s="3">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" xr:uid="{35466134-2A7F-4179-9999-B668511D0075}"/>
-    <hyperlink ref="E9" r:id="rId2" xr:uid="{63804F01-64AD-4BAE-81E7-76D90329C6A4}"/>
-    <hyperlink ref="E11" r:id="rId3" xr:uid="{F7951864-10EB-4525-A620-21C01EE299FE}"/>
-    <hyperlink ref="E12" r:id="rId4" xr:uid="{8D720C58-F881-42BC-83FC-7FDA00E80C39}"/>
-    <hyperlink ref="E15" r:id="rId5" xr:uid="{7F732465-5764-4DBF-8381-27F5A375D239}"/>
-    <hyperlink ref="E21" r:id="rId6" xr:uid="{2970C562-BB0A-471A-9FD8-C09BB272856B}"/>
-    <hyperlink ref="E23" r:id="rId7" xr:uid="{1E086710-8141-4812-9B6D-0438FAC096CA}"/>
-    <hyperlink ref="E24" r:id="rId8" xr:uid="{FA22F415-945B-4260-8F91-07E3F2DD3A6F}"/>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{35466134-2A7F-4179-9999-B668511D0075}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{63804F01-64AD-4BAE-81E7-76D90329C6A4}"/>
+    <hyperlink ref="F11" r:id="rId3" xr:uid="{F7951864-10EB-4525-A620-21C01EE299FE}"/>
+    <hyperlink ref="F12" r:id="rId4" xr:uid="{8D720C58-F881-42BC-83FC-7FDA00E80C39}"/>
+    <hyperlink ref="F15" r:id="rId5" xr:uid="{7F732465-5764-4DBF-8381-27F5A375D239}"/>
+    <hyperlink ref="F21" r:id="rId6" xr:uid="{2970C562-BB0A-471A-9FD8-C09BB272856B}"/>
+    <hyperlink ref="F23" r:id="rId7" xr:uid="{1E086710-8141-4812-9B6D-0438FAC096CA}"/>
+    <hyperlink ref="F24" r:id="rId8" xr:uid="{FA22F415-945B-4260-8F91-07E3F2DD3A6F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.05"/>
@@ -3248,41 +3380,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545FAA73-4FC5-47C5-8E5D-9F6E97DFD181}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43" customWidth="1"/>
-    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="125.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" customWidth="1"/>
+    <col min="4" max="5" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="125.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="7"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="11"/>
       <c r="J1" s="7"/>
-      <c r="L1" s="13"/>
+      <c r="K1" s="7"/>
       <c r="M1" s="13"/>
-    </row>
-    <row r="2" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N1" s="13"/>
+    </row>
+    <row r="2" spans="1:14" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="72" t="s">
         <v>17</v>
@@ -3298,76 +3431,80 @@
       <c r="K2" s="72"/>
       <c r="L2" s="72"/>
       <c r="M2" s="72"/>
-    </row>
-    <row r="3" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N2" s="72"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="73" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="73"/>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="73"/>
+      <c r="E3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="76"/>
+      <c r="G3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="H3" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="I3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="68" t="s">
+      <c r="J3" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="69"/>
       <c r="K3" s="69"/>
       <c r="L3" s="69"/>
-      <c r="M3" s="70"/>
-    </row>
-    <row r="4" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M3" s="69"/>
+      <c r="N3" s="70"/>
+    </row>
+    <row r="4" spans="1:14" ht="30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="74" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="74"/>
-      <c r="D4" s="40">
+      <c r="D4" s="74"/>
+      <c r="E4" s="40">
         <f ca="1">TODAY()</f>
-        <v>45579</v>
-      </c>
-      <c r="E4" s="5"/>
+        <v>45583</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="71" t="s">
+      <c r="J4" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="69"/>
       <c r="K4" s="69"/>
       <c r="L4" s="69"/>
-      <c r="M4" s="70"/>
-    </row>
-    <row r="5" spans="1:13" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="M4" s="69"/>
+      <c r="N4" s="70"/>
+    </row>
+    <row r="5" spans="1:14" ht="38" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="43" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="24"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="25"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N5" s="25"/>
+    </row>
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3375,16 +3512,17 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="6"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="65" t="s">
+      <c r="K6" s="6"/>
+      <c r="L6" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="66"/>
-      <c r="M6" s="67"/>
-    </row>
-    <row r="7" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="66"/>
+      <c r="N6" s="67"/>
+    </row>
+    <row r="7" spans="1:14" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
@@ -3392,220 +3530,238 @@
         <v>2</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="F7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="G7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="H7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="I7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="J7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="K7" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="L7" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="M7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="N7" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
         <v>1</v>
       </c>
       <c r="B8" s="42">
         <v>10</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="42">
+        <v>10</v>
+      </c>
+      <c r="D8" s="64">
         <v>61300621121</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="F8" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="G8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="I8" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="33">
+      <c r="J8" s="33">
         <v>0.70299999999999996</v>
       </c>
-      <c r="J8" s="55">
-        <f>I8*B8</f>
+      <c r="K8" s="55">
+        <f>J8*B8</f>
         <v>7.0299999999999994</v>
       </c>
-      <c r="K8" s="51"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="35"/>
-    </row>
-    <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="L8" s="51"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="35"/>
+    </row>
+    <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="18">
         <v>2</v>
       </c>
       <c r="B9" s="42">
         <v>10</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="42">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="F9" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="G9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="I9" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="33">
+      <c r="J9" s="33">
         <v>0.60299999999999998</v>
       </c>
-      <c r="J9" s="55">
-        <f>I9*B9</f>
+      <c r="K9" s="55">
+        <f>J9*B9</f>
         <v>6.0299999999999994</v>
       </c>
-      <c r="K9" s="52"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="36"/>
-    </row>
-    <row r="10" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="L9" s="52"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="36"/>
+    </row>
+    <row r="10" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>3</v>
       </c>
       <c r="B10" s="41">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="41">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="G10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="I10" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="I10" s="32">
+      <c r="J10" s="32">
         <v>1.96</v>
       </c>
-      <c r="J10" s="55">
-        <f>I10*B10</f>
+      <c r="K10" s="55">
+        <f>J10*B10</f>
         <v>9.8000000000000007</v>
       </c>
-      <c r="K10" s="53"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="37"/>
-    </row>
-    <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="L10" s="53"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="37"/>
+    </row>
+    <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="18">
         <v>4</v>
       </c>
       <c r="B11" s="42">
         <v>10</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="42">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="F11" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="G11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="I11" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="33">
+      <c r="J11" s="33">
         <v>0.88900000000000001</v>
       </c>
-      <c r="J11" s="55">
-        <f>I11*B11</f>
+      <c r="K11" s="55">
+        <f>J11*B11</f>
         <v>8.89</v>
       </c>
-      <c r="K11" s="52"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="36"/>
-    </row>
-    <row r="12" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L11" s="52"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="36"/>
+    </row>
+    <row r="12" spans="1:14" ht="30" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19">
         <v>5</v>
       </c>
       <c r="B12" s="41">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="41">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="F12" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="G12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="I12" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="32">
+      <c r="J12" s="32">
         <v>0.46600000000000003</v>
       </c>
-      <c r="J12" s="55">
-        <f>I12*B12</f>
+      <c r="K12" s="55">
+        <f>J12*B12</f>
         <v>4.66</v>
       </c>
-      <c r="K12" s="53"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="37"/>
-    </row>
-    <row r="13" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="53"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="37"/>
+    </row>
+    <row r="13" spans="1:14" ht="32" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -3613,42 +3769,43 @@
       <c r="E13" s="44"/>
       <c r="F13" s="44"/>
       <c r="G13" s="44"/>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="44"/>
+      <c r="I13" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46">
-        <f>SUM(J8:J12)</f>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46">
+        <f>SUM(K8:K12)</f>
         <v>36.409999999999997</v>
       </c>
-      <c r="K13" s="45"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="28"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20">
+      <c r="L13" s="45"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="28"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E20">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="J4:N4"/>
   </mergeCells>
-  <conditionalFormatting sqref="B8:B12">
+  <conditionalFormatting sqref="B8:C12">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" xr:uid="{D7011FF4-C2A7-46F7-BAF3-259B16A6F512}"/>
-    <hyperlink ref="E9" r:id="rId2" xr:uid="{C67BA8B2-7EC7-4C7B-822C-CBCE514C4E79}"/>
-    <hyperlink ref="E12" r:id="rId3" xr:uid="{3DE39AC0-0CA0-4AE6-914C-D3C102731F7A}"/>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{D7011FF4-C2A7-46F7-BAF3-259B16A6F512}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{C67BA8B2-7EC7-4C7B-822C-CBCE514C4E79}"/>
+    <hyperlink ref="F12" r:id="rId3" xr:uid="{3DE39AC0-0CA0-4AE6-914C-D3C102731F7A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
